--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -575,7 +575,7 @@
         <v>45523.495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45087</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45917.49247685185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44309.486875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45484.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45397.58005787037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45621.69048611111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44308</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44609</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45800.49765046296</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45831.68372685185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44418.48847222222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45261.38623842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44866</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>45665.4808449074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44732</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>45605.45597222223</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44644</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44947</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45096</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45616.40061342593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44323</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>44326.47512731481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44434.60643518518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44886</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44800.77262731481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>44272.65820601852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44613.69466435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>44296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44296.53216435185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44564.59123842593</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44726</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44670</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44574</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>44461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44472.87332175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44637</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44487.61502314815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44448.71143518519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44852.47015046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>44851</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>44734.40373842593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44599</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44670</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44804.47979166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44421</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44434.59706018519</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>44530</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>44616</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44366.58707175926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44366</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44583.48859953704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44423.6921875</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44887.52715277778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44348.60203703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44312</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44327.60472222222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44435.59436342592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44270.30571759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44502</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44585</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44495.71494212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44537.6525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44348</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44370.7040625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44675.52387731482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44589</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44722.35153935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44274.37195601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44341.52290509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44599</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44799.45363425926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44680.57590277777</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44433.48688657407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44630</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44793.74420138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44800.77560185185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44448.68752314815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44732.57942129629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>44872.68400462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44882.69835648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>44238</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44837.50228009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44366.61554398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44296.52827546297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44449.3241550926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44396</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44469</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44481.28127314815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44376</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44788.45302083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44522.37459490741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44500.76238425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44735</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44552</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44649.52905092593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44593.61201388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44596</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44958.58229166667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45227.62710648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45362.65846064815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45196.39703703704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>45315</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44656.41016203703</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>45608.54731481482</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>45397.59844907407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>45006</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>45641.61994212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>45157.35537037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45270.77712962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45747.33934027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>45747.34612268519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45746.8065625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>44732.47703703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45358.41972222222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44882</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45713.57063657408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>45774.76767361111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>45377.31006944444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>44947</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>45315.58699074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45762.66623842593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45327</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45484.56001157407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45551.58702546296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45363.44333333334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>45566.61230324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45740.30517361111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44902.64207175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44867.55510416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44366</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44931</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45701.59048611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45574.613125</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45819</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44958.58</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44853.42767361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45426.57429398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45259.59832175926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45376</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45224</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>45301.32887731482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>45572.61049768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>45257.36528935185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>45183</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>45820.50112268519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>45800.69072916666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>45887.37974537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44958.55733796296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>45805.55758101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45694.45484953704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45153.44586805555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>45615.37414351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44866</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>45467.48980324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>45093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45888.3525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>45825</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>45407.74482638889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>45813.50327546296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>45813.50425925926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>45891.48011574074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>45044</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>45890.55368055555</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>45890.55513888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44988.40950231482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45816.57043981482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45251.39027777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>45895.66614583333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>45814.76371527778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>45893.88939814815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>45894.70920138889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>45816.58734953704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>45815.79688657408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>45664.5280787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45897.6021412037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>45897.60502314815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45897.60579861111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44799.46290509259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>45227.90935185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44537</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45670.3232175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44867</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45743.32101851852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44258</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>45751.64501157407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45820.62862268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>45820.62993055556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45763.56734953704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>45155.44679398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>45222.51053240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45317</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44983</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45819.76692129629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45763</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45099.29707175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45825.38179398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45544.63393518519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45909.17881944445</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45906.77978009259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>45825.3859375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>45909.17378472222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>45906.64269675926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45810.49170138889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>45722.64840277778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>45737.76314814815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45726.60076388889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45740.308125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45740.30979166667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45734.46116898148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45912.33157407407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45662.793125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>45358.42530092593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45826.5583912037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>45174</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45715.62474537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44583.48233796296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45826.56084490741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>45747.3316550926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>45714.63861111111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45740.30222222222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44848.61694444445</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45758.33077546296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45917.23777777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>45747.36087962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45747.39961805556</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45917.69334490741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45734.46896990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45096.49310185185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45831.68861111111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45918.65954861111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45918.27836805556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45922.58141203703</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45922.57309027778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45922.60380787037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45831.81407407407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45922.59641203703</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45922.61231481482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45923.50554398148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45436.29416666667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45832.6290625</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>45079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45835.30780092593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45835.70679398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45259.59259259259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45572.73310185185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>45933.56418981482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45933.513125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45328</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45358.42875</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45769.49650462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45222.60958333333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>44855</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44904.61891203704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44578.56890046296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45936.35686342593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45936.38321759259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>45939.46600694444</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>45937.2980787037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45937.32879629629</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>45677.33115740741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45937.32658564814</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45939.66118055556</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45701.59465277778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>45939.66929398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>45939.69818287037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>45937.330625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44819.38932870371</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45939.68114583333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>45939.70425925926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>45939.70865740741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45938.47579861111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44544.37164351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>45897.60409722223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>45842.35321759259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>45721.92153935185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>45936.50234953704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>45575.6594212963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45832.36733796296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45824.60089120371</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45399.65960648148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45813.49745370371</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45425.50166666666</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45848.34980324074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45362.60065972222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45715.6139699074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45950.51443287037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45950.45165509259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44454.513125</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45950.5109375</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>45763.37650462963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>45950.51739583333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>45950.52065972222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45861.49597222222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45769.49473379629</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45673.43833333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44748.5990625</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45716.58680555555</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44238</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45363.54946759259</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45957.30179398148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45789</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45665.57445601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44323</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45359</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45715.8704050926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45876.45918981481</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45547.56211805555</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45321.57853009259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45425.49927083333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45959.78039351852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45959.7783912037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45877.3594212963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>45096.47930555556</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>45096.48693287037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>45877.35587962963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44867</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>45960.68311342593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>45880.4324537037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>45169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45679.46103009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45771.84162037037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45740.30034722222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45740.31306712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45363</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45966.64509259259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45883.64337962963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45362</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45968.55694444444</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45755.58724537037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45789</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45970</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45973.73554398148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45484.5425462963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45973.73327546296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45973.38502314815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45882.70383101852</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45973.72755787037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45973.72988425926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>45812.88762731481</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44770</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45140.48737268519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44977</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45245.54103009259</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>45062.47752314815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45978.7262962963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45978.73516203704</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45978.60631944444</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45978.6075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45978.72342592593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45978.73694444444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>45644.65484953704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>45211</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45978.77400462963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45978.61762731482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45978.7124537037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45978.71613425926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45978.77184027778</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45315</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45315.58561342592</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>45978.71899305555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45329.60322916666</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44375.48304398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45980.52216435185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44522.32146990741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>44866</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>46029.5978587963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>44327</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45267</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44838</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45558.64050925926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>44958</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>44578.57564814815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45546.41631944444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45989.57377314815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45359</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45993.62711805556</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45993.61234953703</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45342</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45034</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45174</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44447</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45760.74111111111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45994.61512731481</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45994.61616898148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45708.59888888889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45761.66307870371</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44958.57884259259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45722.62149305556</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44658.64395833333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45624.30578703704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44263</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45762.66929398148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45096.54045138889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45187.58931712963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>46000.74790509259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45392.31473379629</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45679.4559375</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45679.45844907407</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45424.66726851852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45424.67069444444</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45602.49099537037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44462</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>45686.57615740741</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44866</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45303</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>46003.52628472223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45170</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>44965.42309027778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>44552.73288194444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>44720</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>44882.53041666667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>46006.58729166666</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>44652.3578587963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44882.53457175926</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45551.56788194444</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45316.61636574074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45433.47820601852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>46051.42083333333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>46051.41560185186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45701.59832175926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>46051.42386574074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44665</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45656.30733796296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45188.63167824074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44270.6375</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45574.73483796296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>46013.61328703703</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>46010.42064814815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44867</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45140</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>46013.51569444445</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>46013.61670138889</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>46013.62133101852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>46013.6294212963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45714.70980324074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45463.46701388889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45463.50510416667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45705.90400462963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45720.68186342593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45695.27399305555</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45665.75994212963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45713.549375</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45711.66019675926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45688.31125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45715.57387731481</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44656.41122685185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45714.70159722222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44600.5171412037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45526.88622685185</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>46058.42747685185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45316</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45684.46290509259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45664.53193287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45673.49438657407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45002.52252314815</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45392.31230324074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45720.32884259259</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45467.37991898148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44390</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45539.67503472222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45005</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44684.94835648148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44593.63106481481</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45544.62965277778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>44725</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45362.65149305556</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44802.67622685185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45050.46230324074</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44393</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>45572.73627314815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45708.60285879629</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>45450.35185185185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>45762.66724537037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>45377.64844907408</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30089,7 +30089,7 @@
         <v>45377.64953703704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>44866</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>45771.83752314815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30265,7 +30265,7 @@
         <v>45722.65114583333</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30322,7 +30322,7 @@
         <v>45547.56070601852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>45169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>44699.60015046296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>45755.67962962963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>45334.66134259259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>45035</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45035.55740740741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45377.60664351852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>45772</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>45267.48306712963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>45050.45886574074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44523.90597222222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31068,7 +31068,7 @@
         <v>44511.50591435185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31125,7 +31125,7 @@
         <v>44511.52870370371</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45436.29991898148</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45308.76016203704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45097.87364583334</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45210.68569444444</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>44784.62546296296</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45523.61668981481</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>45196.4919212963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>45573.49206018518</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45762.66334490741</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45602.46625</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>45602.46885416667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45392.30935185185</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45392.31827546296</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31933,7 +31933,7 @@
         <v>45252.61841435185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         <v>45629.66594907407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>45629.67246527778</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32104,7 +32104,7 @@
         <v>45736.85403935185</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32161,7 +32161,7 @@
         <v>45334.65969907407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32218,7 +32218,7 @@
         <v>44679.46383101852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         <v>44851.36157407407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32332,7 +32332,7 @@
         <v>45568.45821759259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32389,7 +32389,7 @@
         <v>45415.55299768518</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32446,7 +32446,7 @@
         <v>45716.57733796296</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32508,7 +32508,7 @@
         <v>45472.47465277778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32565,7 +32565,7 @@
         <v>45227</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>45601.42782407408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>45391.56081018518</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32736,7 +32736,7 @@
         <v>45391.57079861111</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>44866</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32855,7 +32855,7 @@
         <v>45258</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32912,7 +32912,7 @@
         <v>44887</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32969,7 +32969,7 @@
         <v>44649.54094907407</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         <v>44851</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>44622.4339699074</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>44622</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33197,7 +33197,7 @@
         <v>45376</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>45189.49895833333</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>45519.45018518518</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>45751.6478587963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>45467.48260416667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>45574.71733796296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33544,7 +33544,7 @@
         <v>45575.33427083334</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>45587.44087962963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>45258.3278125</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>45096.47690972222</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45035.48894675926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44586.47695601852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45761.43445601852</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45761.44023148148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         <v>45089</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45751.64315972223</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45751.64424768519</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45624.31189814815</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45746.78952546296</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45701.5966550926</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>45328</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45394</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>44267</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>45093</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>45573.54892361111</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>45594.86378472222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>45070.59466435185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45310</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>45301</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>45595.56956018518</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>45700.48887731481</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>45394</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>45544.38148148148</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45664.52055555556</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>45044</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>45474.46332175926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35279,7 +35279,7 @@
         <v>44434</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35336,7 +35336,7 @@
         <v>45747.36298611111</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>45747.40263888889</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45747.40377314815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>44831</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>44831.67641203704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45317</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45075.35929398148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>44882.691875</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075.59015046297</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45625.4484837963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45070.6187037037</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>44547.498125</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>45259.58164351852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         <v>45609.71940972222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>44587.59861111111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
         <v>45313.7837037037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36248,7 +36248,7 @@
         <v>45306.46153935185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>45096</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>45131.35476851852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45388.54862268519</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45328</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45113</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>45301.32994212963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>45672.59924768518</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45266.46422453703</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44665.37211805556</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45730</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45782.38717592593</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37004,7 +37004,7 @@
         <v>45785.55520833333</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37061,7 +37061,7 @@
         <v>45096</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37123,7 +37123,7 @@
         <v>45641.60702546296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37180,7 +37180,7 @@
         <v>45075</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37237,7 +37237,7 @@
         <v>45789.84584490741</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>45792.35465277778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37351,7 +37351,7 @@
         <v>45792.36625</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>45796.57332175926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37465,7 +37465,7 @@
         <v>45797.44449074074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -575,7 +575,7 @@
         <v>45523.495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45087</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45917.49247685185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44309.486875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45484.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45397.58005787037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45621.69048611111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44308</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44609</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45800.49765046296</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         <v>45831.68372685185</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>44418.48847222222</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         <v>45261.38623842593</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         <v>44866</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>45665.4808449074</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44732</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>45605.45597222223</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44644</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         <v>44947</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2386,7 +2386,7 @@
         <v>45096</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>45616.40061342593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>44323</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>44326.47512731481</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>44434.60643518518</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>44886</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
         <v>44800.77262731481</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>44272.65820601852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2908,7 +2908,7 @@
         <v>44251</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2965,7 +2965,7 @@
         <v>44613.69466435185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>44296</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>44296.53216435185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3136,7 +3136,7 @@
         <v>44564.59123842593</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3193,7 +3193,7 @@
         <v>44726</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>44670</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>44574</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>44461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>44585</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44472.87332175926</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44637</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>44487.61502314815</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>44448.71143518519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>44852.47015046296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
         <v>44851</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3835,7 +3835,7 @@
         <v>44734.40373842593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         <v>44599</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
         <v>44670</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4011,7 +4011,7 @@
         <v>44494</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
         <v>44804.47979166666</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4125,7 +4125,7 @@
         <v>44421</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         <v>44434.59706018519</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>44530</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         <v>44616</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         <v>44366.58707175926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         <v>44366</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         <v>44583.48859953704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         <v>44423.6921875</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>44887.52715277778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         <v>44348.60203703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         <v>44312</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         <v>44327.60472222222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         <v>44435.59436342592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         <v>44375</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         <v>44270.30571759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         <v>44270</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>44502</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5104,7 +5104,7 @@
         <v>44585</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         <v>44495.71494212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5223,7 +5223,7 @@
         <v>44537.6525462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         <v>44348</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>44370.7040625</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         <v>44675.52387731482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>44589</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5513,7 +5513,7 @@
         <v>44722.35153935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         <v>44274.37195601852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         <v>44775</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
         <v>44341.52290509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5741,7 +5741,7 @@
         <v>44599</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
         <v>44509</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44799.45363425926</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5912,7 +5912,7 @@
         <v>44680.57590277777</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5969,7 +5969,7 @@
         <v>44433.48688657407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6026,7 +6026,7 @@
         <v>44630</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6083,7 +6083,7 @@
         <v>44793.74420138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>44800.77560185185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
         <v>44448.68752314815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6254,7 +6254,7 @@
         <v>44732.57942129629</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>44872.68400462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44882.69835648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>44238</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>44837.50228009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>44366.61554398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>44296.52827546297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>44449.3241550926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>44396</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>44469</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
         <v>44481.28127314815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6943,7 +6943,7 @@
         <v>44376</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7000,7 +7000,7 @@
         <v>44788.45302083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7057,7 +7057,7 @@
         <v>44522.37459490741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44500.76238425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         <v>44350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
         <v>44735</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7285,7 +7285,7 @@
         <v>44599</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7342,7 +7342,7 @@
         <v>44433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>44705</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>44552</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>44649.52905092593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>44593.61201388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>44596</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7689,7 +7689,7 @@
         <v>44958.58229166667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>45227.62710648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
         <v>45362.65846064815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7860,7 +7860,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         <v>45316</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7974,7 +7974,7 @@
         <v>45196.39703703704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8031,7 +8031,7 @@
         <v>45315</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8088,7 +8088,7 @@
         <v>44656.41016203703</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8145,7 +8145,7 @@
         <v>45608.54731481482</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>45397.59844907407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>45006</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8316,7 +8316,7 @@
         <v>45641.61994212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8373,7 +8373,7 @@
         <v>45157.35537037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8430,7 +8430,7 @@
         <v>45270.77712962963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8487,7 +8487,7 @@
         <v>45747.33934027778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8544,7 +8544,7 @@
         <v>45747.34612268519</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8601,7 +8601,7 @@
         <v>45746.8065625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8658,7 +8658,7 @@
         <v>44732.47703703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8715,7 +8715,7 @@
         <v>45358.41972222222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44882</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>45713.57063657408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>45774.76767361111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>45377.31006944444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9005,7 +9005,7 @@
         <v>44947</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9062,7 +9062,7 @@
         <v>45315.58699074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9119,7 +9119,7 @@
         <v>45762.66623842593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9176,7 +9176,7 @@
         <v>45327</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         <v>45484.56001157407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9290,7 +9290,7 @@
         <v>44852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>45551.58702546296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9404,7 +9404,7 @@
         <v>45363.44333333334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9461,7 +9461,7 @@
         <v>45566.61230324074</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9518,7 +9518,7 @@
         <v>45740.30517361111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44902.64207175926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44867.55510416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9689,7 +9689,7 @@
         <v>44923</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
         <v>44366</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44931</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9860,7 +9860,7 @@
         <v>45701.59048611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45574.613125</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9979,7 +9979,7 @@
         <v>45819</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10036,7 +10036,7 @@
         <v>44958.58</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>44853.42767361111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10150,7 +10150,7 @@
         <v>45426.57429398148</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10207,7 +10207,7 @@
         <v>45259.59832175926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10264,7 +10264,7 @@
         <v>45376</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10326,7 +10326,7 @@
         <v>45224</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10388,7 +10388,7 @@
         <v>45301.32887731482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10445,7 +10445,7 @@
         <v>45572.61049768519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10502,7 +10502,7 @@
         <v>45257.36528935185</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>45183</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
         <v>45820.50112268519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10673,7 +10673,7 @@
         <v>45800.69072916666</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10735,7 +10735,7 @@
         <v>45887.37974537037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10792,7 +10792,7 @@
         <v>44958.55733796296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10849,7 +10849,7 @@
         <v>45805.55758101852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10911,7 +10911,7 @@
         <v>45694.45484953704</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10973,7 +10973,7 @@
         <v>45153.44586805555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11030,7 +11030,7 @@
         <v>45615.37414351852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11087,7 +11087,7 @@
         <v>44866</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11149,7 +11149,7 @@
         <v>45467.48980324074</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11206,7 +11206,7 @@
         <v>45093</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11263,7 +11263,7 @@
         <v>45888.3525</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11320,7 +11320,7 @@
         <v>45825</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11377,7 +11377,7 @@
         <v>45407.74482638889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11434,7 +11434,7 @@
         <v>45813.50327546296</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11491,7 +11491,7 @@
         <v>45813.50425925926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>45891.48011574074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>45044</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>45890.55368055555</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>45890.55513888889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44988.40950231482</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11833,7 +11833,7 @@
         <v>45816.57043981482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11890,7 +11890,7 @@
         <v>45251.39027777778</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         <v>45895.66614583333</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12004,7 +12004,7 @@
         <v>45814.76371527778</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12061,7 +12061,7 @@
         <v>45893.88939814815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12118,7 +12118,7 @@
         <v>45894.70920138889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12175,7 +12175,7 @@
         <v>45816.58734953704</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12232,7 +12232,7 @@
         <v>45815.79688657408</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12289,7 +12289,7 @@
         <v>45664.5280787037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12346,7 +12346,7 @@
         <v>45897.6021412037</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12408,7 +12408,7 @@
         <v>45897.60502314815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>45897.60579861111</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>44799.46290509259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12589,7 +12589,7 @@
         <v>45227.90935185185</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12646,7 +12646,7 @@
         <v>44537</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12703,7 +12703,7 @@
         <v>45670.3232175926</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12760,7 +12760,7 @@
         <v>44867</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12817,7 +12817,7 @@
         <v>45743.32101851852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12874,7 +12874,7 @@
         <v>44258</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12931,7 +12931,7 @@
         <v>45751.64501157407</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12993,7 +12993,7 @@
         <v>45820.62862268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13050,7 +13050,7 @@
         <v>45820.62993055556</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>45763.56734953704</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13164,7 +13164,7 @@
         <v>45155.44679398148</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13221,7 +13221,7 @@
         <v>45222.51053240741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13278,7 +13278,7 @@
         <v>45317</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13335,7 +13335,7 @@
         <v>44983</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>45819.76692129629</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13449,7 +13449,7 @@
         <v>45763</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13506,7 +13506,7 @@
         <v>45099.29707175926</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13563,7 +13563,7 @@
         <v>45825.38179398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13620,7 +13620,7 @@
         <v>45544.63393518519</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13677,7 +13677,7 @@
         <v>45909.17881944445</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13734,7 +13734,7 @@
         <v>45906.77978009259</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13796,7 +13796,7 @@
         <v>45825.3859375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13853,7 +13853,7 @@
         <v>45909.17378472222</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13910,7 +13910,7 @@
         <v>45906.64269675926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13972,7 +13972,7 @@
         <v>45810.49170138889</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>45722.64840277778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>45737.76314814815</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>45726.60076388889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>45740.308125</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>45740.30979166667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>45734.46116898148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>45912.33157407407</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>45662.793125</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>45358.42530092593</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>45826.5583912037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>45174</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>45715.62474537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44583.48233796296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>45826.56084490741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>45747.3316550926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>45714.63861111111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>45740.30222222222</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44848.61694444445</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>45758.33077546296</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>45917.23777777778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         <v>45747.36087962963</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
         <v>45747.39961805556</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15293,7 +15293,7 @@
         <v>45917.69334490741</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15350,7 +15350,7 @@
         <v>45734.46896990741</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15407,7 +15407,7 @@
         <v>44355</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15464,7 +15464,7 @@
         <v>45566</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>45096.49310185185</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15578,7 +15578,7 @@
         <v>45831.68861111111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15635,7 +15635,7 @@
         <v>45918.65954861111</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15692,7 +15692,7 @@
         <v>45918.27836805556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15749,7 +15749,7 @@
         <v>45922.58141203703</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>45922.57309027778</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>45922.60380787037</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15920,7 +15920,7 @@
         <v>45831.81407407407</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15977,7 +15977,7 @@
         <v>45922.59641203703</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16034,7 +16034,7 @@
         <v>45922.61231481482</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16091,7 +16091,7 @@
         <v>45923.50554398148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16148,7 +16148,7 @@
         <v>45436.29416666667</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16205,7 +16205,7 @@
         <v>45832.6290625</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16262,7 +16262,7 @@
         <v>45079</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16319,7 +16319,7 @@
         <v>45835.30780092593</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16376,7 +16376,7 @@
         <v>45316</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16433,7 +16433,7 @@
         <v>45835.70679398148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16490,7 +16490,7 @@
         <v>45259.59259259259</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16547,7 +16547,7 @@
         <v>45245</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16604,7 +16604,7 @@
         <v>45572.73310185185</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16661,7 +16661,7 @@
         <v>45933.56418981482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>45933.513125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16775,7 +16775,7 @@
         <v>45328</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16837,7 +16837,7 @@
         <v>45328</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16899,7 +16899,7 @@
         <v>45358.42875</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16956,7 +16956,7 @@
         <v>45769.49650462963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17013,7 +17013,7 @@
         <v>45222.60958333333</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17070,7 +17070,7 @@
         <v>44855</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17127,7 +17127,7 @@
         <v>44904.61891203704</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17184,7 +17184,7 @@
         <v>44578.56890046296</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>45936.35686342593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>45936.38321759259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>45939.46600694444</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>45937.2980787037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17469,7 +17469,7 @@
         <v>45937.32879629629</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17526,7 +17526,7 @@
         <v>45677.33115740741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17583,7 +17583,7 @@
         <v>45937.32658564814</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>45939.66118055556</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17697,7 +17697,7 @@
         <v>45701.59465277778</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17754,7 +17754,7 @@
         <v>45939.66929398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>45939.69818287037</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17868,7 +17868,7 @@
         <v>45937.330625</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>44819.38932870371</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45939.68114583333</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18039,7 +18039,7 @@
         <v>45939.70425925926</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18096,7 +18096,7 @@
         <v>45939.70865740741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18153,7 +18153,7 @@
         <v>45938.47579861111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>44544.37164351852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18267,7 +18267,7 @@
         <v>45897.60409722223</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18329,7 +18329,7 @@
         <v>45842.35321759259</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18386,7 +18386,7 @@
         <v>45721.92153935185</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18443,7 +18443,7 @@
         <v>45936.50234953704</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18500,7 +18500,7 @@
         <v>45575.6594212963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18562,7 +18562,7 @@
         <v>45832.36733796296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18619,7 +18619,7 @@
         <v>45824.60089120371</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18676,7 +18676,7 @@
         <v>45399.65960648148</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18733,7 +18733,7 @@
         <v>45813.49745370371</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18790,7 +18790,7 @@
         <v>45425.50166666666</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18847,7 +18847,7 @@
         <v>45848.34980324074</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18904,7 +18904,7 @@
         <v>45362.60065972222</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18961,7 +18961,7 @@
         <v>45715.6139699074</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19018,7 +19018,7 @@
         <v>45950.51443287037</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19075,7 +19075,7 @@
         <v>45950.45165509259</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19132,7 +19132,7 @@
         <v>44454.513125</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19189,7 +19189,7 @@
         <v>45950.5109375</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>45763.37650462963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19308,7 +19308,7 @@
         <v>45950.51739583333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19365,7 +19365,7 @@
         <v>45950.52065972222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45861.49597222222</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45769.49473379629</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45673.43833333333</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44748.5990625</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45716.58680555555</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>44238</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45363.54946759259</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19836,7 +19836,7 @@
         <v>44749</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45957.30179398148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45789</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45665.57445601852</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>44323</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45359</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45715.8704050926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45876.45918981481</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45547.56211805555</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45321.57853009259</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45425.49927083333</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>45959.78039351852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>45959.7783912037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>45877.3594212963</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>45096.47930555556</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>45096.48693287037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20753,7 +20753,7 @@
         <v>45877.35587962963</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20810,7 +20810,7 @@
         <v>44867</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20867,7 +20867,7 @@
         <v>45960.68311342593</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20924,7 +20924,7 @@
         <v>45880.4324537037</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20981,7 +20981,7 @@
         <v>45169</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45679.46103009259</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21095,7 +21095,7 @@
         <v>45771.84162037037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21152,7 +21152,7 @@
         <v>45740.30034722222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21209,7 +21209,7 @@
         <v>45740.31306712963</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21266,7 +21266,7 @@
         <v>45363</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21328,7 +21328,7 @@
         <v>45966.64509259259</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21385,7 +21385,7 @@
         <v>45883.64337962963</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21442,7 +21442,7 @@
         <v>45362</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45968.55694444444</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>45755.58724537037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21613,7 +21613,7 @@
         <v>45789</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21670,7 +21670,7 @@
         <v>45970</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21727,7 +21727,7 @@
         <v>45973.73554398148</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21789,7 +21789,7 @@
         <v>45484.5425462963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21846,7 +21846,7 @@
         <v>45973.73327546296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21908,7 +21908,7 @@
         <v>45973.38502314815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21965,7 +21965,7 @@
         <v>45882.70383101852</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22022,7 +22022,7 @@
         <v>45973.72755787037</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22084,7 +22084,7 @@
         <v>45973.72988425926</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22146,7 +22146,7 @@
         <v>45812.88762731481</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22203,7 +22203,7 @@
         <v>44770</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         <v>45140.48737268519</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22317,7 +22317,7 @@
         <v>44977</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22374,7 +22374,7 @@
         <v>45245.54103009259</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22431,7 +22431,7 @@
         <v>45062.47752314815</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22488,7 +22488,7 @@
         <v>45978.7262962963</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22545,7 +22545,7 @@
         <v>45978.73516203704</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22602,7 +22602,7 @@
         <v>45978.60631944444</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22659,7 +22659,7 @@
         <v>45978.6075</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>45978.72342592593</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22773,7 +22773,7 @@
         <v>45978.73694444444</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22830,7 +22830,7 @@
         <v>45644.65484953704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22887,7 +22887,7 @@
         <v>45211</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22944,7 +22944,7 @@
         <v>45978.77400462963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23001,7 +23001,7 @@
         <v>45978.61762731482</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>45978.7124537037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>45978.71613425926</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23172,7 +23172,7 @@
         <v>45978.77184027778</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23229,7 +23229,7 @@
         <v>45315</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>45315.58561342592</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>45978.71899305555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23400,7 +23400,7 @@
         <v>44963</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23457,7 +23457,7 @@
         <v>45329.60322916666</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23514,7 +23514,7 @@
         <v>44375.48304398148</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>45980.52216435185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44522.32146990741</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>44866</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>46029.5978587963</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23809,7 +23809,7 @@
         <v>44327</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23866,7 +23866,7 @@
         <v>45267</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44838</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>45558.64050925926</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>44958</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>44578.57564814815</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45546.41631944444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24208,7 +24208,7 @@
         <v>45989.57377314815</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24265,7 +24265,7 @@
         <v>45359</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24322,7 +24322,7 @@
         <v>45993.62711805556</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24379,7 +24379,7 @@
         <v>45993.61234953703</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24436,7 +24436,7 @@
         <v>45342</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24493,7 +24493,7 @@
         <v>45034</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24550,7 +24550,7 @@
         <v>45174</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24607,7 +24607,7 @@
         <v>44447</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24664,7 +24664,7 @@
         <v>45760.74111111111</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24721,7 +24721,7 @@
         <v>45994.61512731481</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24778,7 +24778,7 @@
         <v>45994.61616898148</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24835,7 +24835,7 @@
         <v>45708.59888888889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24892,7 +24892,7 @@
         <v>45761.66307870371</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44958.57884259259</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25006,7 +25006,7 @@
         <v>45722.62149305556</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25063,7 +25063,7 @@
         <v>44658.64395833333</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25120,7 +25120,7 @@
         <v>45624.30578703704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25177,7 +25177,7 @@
         <v>44263</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25234,7 +25234,7 @@
         <v>45762.66929398148</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25291,7 +25291,7 @@
         <v>44970</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25348,7 +25348,7 @@
         <v>45096.54045138889</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25405,7 +25405,7 @@
         <v>45187.58931712963</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25462,7 +25462,7 @@
         <v>46000.74790509259</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25519,7 +25519,7 @@
         <v>45392.31473379629</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         <v>45679.4559375</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25633,7 +25633,7 @@
         <v>45679.45844907407</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25690,7 +25690,7 @@
         <v>45424.66726851852</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45424.67069444444</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25804,7 +25804,7 @@
         <v>45602.49099537037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25861,7 +25861,7 @@
         <v>44462</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25918,7 +25918,7 @@
         <v>45686.57615740741</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25975,7 +25975,7 @@
         <v>44866</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>45303</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>46003.52628472223</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>45170</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26208,7 +26208,7 @@
         <v>44965.42309027778</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26265,7 +26265,7 @@
         <v>44552.73288194444</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26322,7 +26322,7 @@
         <v>44720</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26379,7 +26379,7 @@
         <v>44882.53041666667</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26436,7 +26436,7 @@
         <v>46006.58729166666</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26493,7 +26493,7 @@
         <v>44652.3578587963</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26550,7 +26550,7 @@
         <v>44882.53457175926</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26607,7 +26607,7 @@
         <v>45551.56788194444</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26664,7 +26664,7 @@
         <v>45316.61636574074</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26721,7 +26721,7 @@
         <v>45433.47820601852</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26778,7 +26778,7 @@
         <v>46051.42083333333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>46051.41560185186</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45701.59832175926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>46051.42386574074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44665</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>45656.30733796296</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45188.63167824074</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44270.6375</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>45574.73483796296</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>46013.61328703703</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>46010.42064814815</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>44867</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>45140</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>46013.51569444445</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>46013.61670138889</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>46013.62133101852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>46013.6294212963</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>45714.70980324074</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27804,7 +27804,7 @@
         <v>45463.46701388889</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27861,7 +27861,7 @@
         <v>45463.50510416667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27918,7 +27918,7 @@
         <v>45705.90400462963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27975,7 +27975,7 @@
         <v>45720.68186342593</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28032,7 +28032,7 @@
         <v>45695.27399305555</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28089,7 +28089,7 @@
         <v>45665.75994212963</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28146,7 +28146,7 @@
         <v>45713.549375</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28203,7 +28203,7 @@
         <v>45711.66019675926</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28260,7 +28260,7 @@
         <v>45688.31125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         <v>45715.57387731481</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28374,7 +28374,7 @@
         <v>44656.41122685185</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28431,7 +28431,7 @@
         <v>45714.70159722222</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28488,7 +28488,7 @@
         <v>44600.5171412037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28545,7 +28545,7 @@
         <v>45526.88622685185</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>46058.42747685185</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28659,7 +28659,7 @@
         <v>45316</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28716,7 +28716,7 @@
         <v>45684.46290509259</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28773,7 +28773,7 @@
         <v>45664.53193287037</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28830,7 +28830,7 @@
         <v>45673.49438657407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28887,7 +28887,7 @@
         <v>45002.52252314815</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45392.31230324074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45720.32884259259</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45467.37991898148</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>44390</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45539.67503472222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45005</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>44684.94835648148</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>44593.63106481481</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45544.62965277778</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>44725</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45362.65149305556</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44802.67622685185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45050.46230324074</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44393</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>45572.73627314815</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45708.60285879629</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>45450.35185185185</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>45762.66724537037</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>45377.64844907408</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30089,7 +30089,7 @@
         <v>45377.64953703704</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30146,7 +30146,7 @@
         <v>44866</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>45771.83752314815</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30265,7 +30265,7 @@
         <v>45722.65114583333</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30322,7 +30322,7 @@
         <v>45547.56070601852</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30384,7 +30384,7 @@
         <v>45169</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30441,7 +30441,7 @@
         <v>44699.60015046296</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30498,7 +30498,7 @@
         <v>45755.67962962963</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30555,7 +30555,7 @@
         <v>45334.66134259259</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         <v>45035</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30669,7 +30669,7 @@
         <v>45035.55740740741</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30726,7 +30726,7 @@
         <v>45377.60664351852</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30783,7 +30783,7 @@
         <v>44952</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>45772</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30897,7 +30897,7 @@
         <v>45267.48306712963</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30954,7 +30954,7 @@
         <v>45050.45886574074</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31011,7 +31011,7 @@
         <v>44523.90597222222</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31068,7 +31068,7 @@
         <v>44511.50591435185</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31125,7 +31125,7 @@
         <v>44511.52870370371</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31182,7 +31182,7 @@
         <v>45436.29991898148</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31239,7 +31239,7 @@
         <v>45308.76016203704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31296,7 +31296,7 @@
         <v>45097.87364583334</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31353,7 +31353,7 @@
         <v>45210.68569444444</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31410,7 +31410,7 @@
         <v>44784.62546296296</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31467,7 +31467,7 @@
         <v>45523.61668981481</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31529,7 +31529,7 @@
         <v>45196.4919212963</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31586,7 +31586,7 @@
         <v>45573.49206018518</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31648,7 +31648,7 @@
         <v>45762.66334490741</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31705,7 +31705,7 @@
         <v>45602.46625</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31762,7 +31762,7 @@
         <v>45602.46885416667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31819,7 +31819,7 @@
         <v>45392.30935185185</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31876,7 +31876,7 @@
         <v>45392.31827546296</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31933,7 +31933,7 @@
         <v>45252.61841435185</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31990,7 +31990,7 @@
         <v>45629.66594907407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32047,7 +32047,7 @@
         <v>45629.67246527778</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32104,7 +32104,7 @@
         <v>45736.85403935185</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32161,7 +32161,7 @@
         <v>45334.65969907407</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32218,7 +32218,7 @@
         <v>44679.46383101852</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32275,7 +32275,7 @@
         <v>44851.36157407407</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32332,7 +32332,7 @@
         <v>45568.45821759259</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32389,7 +32389,7 @@
         <v>45415.55299768518</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32446,7 +32446,7 @@
         <v>45716.57733796296</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32508,7 +32508,7 @@
         <v>45472.47465277778</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32565,7 +32565,7 @@
         <v>45227</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>45601.42782407408</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>45391.56081018518</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32736,7 +32736,7 @@
         <v>45391.57079861111</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>44866</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32855,7 +32855,7 @@
         <v>45258</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32912,7 +32912,7 @@
         <v>44887</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32969,7 +32969,7 @@
         <v>44649.54094907407</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         <v>44851</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33083,7 +33083,7 @@
         <v>44622.4339699074</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>44622</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33197,7 +33197,7 @@
         <v>45376</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33254,7 +33254,7 @@
         <v>45189.49895833333</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33311,7 +33311,7 @@
         <v>45519.45018518518</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33368,7 +33368,7 @@
         <v>45751.6478587963</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>45467.48260416667</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>45574.71733796296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33544,7 +33544,7 @@
         <v>45575.33427083334</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>45587.44087962963</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>45258.3278125</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>45096.47690972222</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>45035.48894675926</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33829,7 +33829,7 @@
         <v>44586.47695601852</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33886,7 +33886,7 @@
         <v>45761.43445601852</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33943,7 +33943,7 @@
         <v>45761.44023148148</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34000,7 +34000,7 @@
         <v>45089</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34057,7 +34057,7 @@
         <v>45751.64315972223</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45751.64424768519</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34181,7 +34181,7 @@
         <v>45624.31189814815</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45746.78952546296</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45701.5966550926</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>45328</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>45394</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>44267</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>45093</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34585,7 +34585,7 @@
         <v>45573.54892361111</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34642,7 +34642,7 @@
         <v>45594.86378472222</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>45070.59466435185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45310</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34818,7 +34818,7 @@
         <v>45301</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>45595.56956018518</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>45700.48887731481</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>45394</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>45544.38148148148</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>45664.52055555556</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35165,7 +35165,7 @@
         <v>45044</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35222,7 +35222,7 @@
         <v>45474.46332175926</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35279,7 +35279,7 @@
         <v>44434</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35336,7 +35336,7 @@
         <v>45747.36298611111</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35393,7 +35393,7 @@
         <v>45747.40263888889</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35450,7 +35450,7 @@
         <v>45747.40377314815</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35507,7 +35507,7 @@
         <v>44831</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35564,7 +35564,7 @@
         <v>44831.67641203704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35621,7 +35621,7 @@
         <v>45317</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35678,7 +35678,7 @@
         <v>45075.35929398148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35735,7 +35735,7 @@
         <v>44882.691875</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35792,7 +35792,7 @@
         <v>45075.59015046297</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35849,7 +35849,7 @@
         <v>45625.4484837963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35906,7 +35906,7 @@
         <v>45070.6187037037</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35963,7 +35963,7 @@
         <v>44547.498125</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36020,7 +36020,7 @@
         <v>45259.58164351852</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36077,7 +36077,7 @@
         <v>45609.71940972222</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>44587.59861111111</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
         <v>45313.7837037037</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36248,7 +36248,7 @@
         <v>45306.46153935185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36305,7 +36305,7 @@
         <v>45096</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36367,7 +36367,7 @@
         <v>45096</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36429,7 +36429,7 @@
         <v>45131.35476851852</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36486,7 +36486,7 @@
         <v>45388.54862268519</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45328</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45113</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>45301.32994212963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36719,7 +36719,7 @@
         <v>45672.59924768518</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36776,7 +36776,7 @@
         <v>45266.46422453703</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36833,7 +36833,7 @@
         <v>44665.37211805556</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36890,7 +36890,7 @@
         <v>45730</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36947,7 +36947,7 @@
         <v>45782.38717592593</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37004,7 +37004,7 @@
         <v>45785.55520833333</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37061,7 +37061,7 @@
         <v>45096</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37123,7 +37123,7 @@
         <v>45641.60702546296</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37180,7 +37180,7 @@
         <v>45075</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37237,7 +37237,7 @@
         <v>45789.84584490741</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37294,7 +37294,7 @@
         <v>45792.35465277778</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37351,7 +37351,7 @@
         <v>45792.36625</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37408,7 +37408,7 @@
         <v>45796.57332175926</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37465,7 +37465,7 @@
         <v>45797.44449074074</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -575,7 +575,7 @@
         <v>45523.495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45087</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45917.49247685185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44309.486875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45484.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45397.58005787037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45621.69048611111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44308</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44609</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45831.68372685185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44418.48847222222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>45261.38623842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44866</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>45665.4808449074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45605.45597222223</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44947</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>46072.33061342593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45616.40061342593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45800.49765046296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44323</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44326.47512731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44434.60643518518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44886</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44800.77262731481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44272.65820601852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44251</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44613.69466435185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44296.53216435185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44574</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44564.59123842593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44726</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44585</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44472.87332175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44637</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44487.61502314815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44448.71143518519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44852.47015046296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44734.40373842593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44851</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44670</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44804.47979166666</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44421</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>44434.59706018519</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44616</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44583.48859953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44366.58707175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44366</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44423.6921875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44887.52715277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44348.60203703704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44327.60472222222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44312</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44435.59436342592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44502</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44270.30571759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44270</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44585</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44495.71494212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>44537.6525462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44348</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44589</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44370.7040625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44675.52387731482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44722.35153935185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44274.37195601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>44341.52290509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44599</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44799.45363425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44680.57590277777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44433.48688657407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44630</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44793.74420138889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44800.77560185185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44448.68752314815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44732.57942129629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44872.68400462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44882.69835648148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44837.50228009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44366.61554398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44296.52827546297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44449.3241550926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44396</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44469</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44481.28127314815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44376</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44788.45302083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44522.37459490741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44500.76238425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44705</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44735</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44599</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44649.52905092593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44593.61201388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44596</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44958.58229166667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45316</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45196.39703703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45227.62710648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45362.65846064815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>45315</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>45608.54731481482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44656.41016203703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45006</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45397.59844907407</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45641.61994212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45157.35537037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45747.33934027778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45747.34612268519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45270.77712962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45746.8065625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44732.47703703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45358.41972222222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44882</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45713.57063657408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45774.76767361111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45377.31006944444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44947</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45315.58699074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45484.56001157407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45762.66623842593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45551.58702546296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>44852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45740.30517361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45363.44333333334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>44902.64207175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45566.61230324074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>44867.55510416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>44366</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44931</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45574.613125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45701.59048611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45426.57429398148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45376</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45327</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45259.59832175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45224</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>45301.32887731482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45572.61049768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45257.36528935185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44958.55733796296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45694.45484953704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45467.48980324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45093</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44988.40950231482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45251.39027777778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45044</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>45815.79688657408</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45819</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44958.58</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44853.42767361111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45407.74482638889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45664.5280787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45183</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45820.50112268519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44799.46290509259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45227.90935185185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44537</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45670.3232175926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45887.37974537037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44867</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45820.62862268519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45820.62993055556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44258</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45819.76692129629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45751.64501157407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45153.44586805555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>45825.38179398148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>45615.37414351852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>45763.56734953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>45155.44679398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>45825.3859375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>45222.51053240741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>45888.3525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>45317</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44983</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45825</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45763</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45722.64840277778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45737.76314814815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45726.60076388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45740.308125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45740.30979166667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45734.46116898148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>45099.29707175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>45544.63393518519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>45891.48011574074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>45890.55368055555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45890.55513888889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45826.5583912037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45715.62474537037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45826.56084490741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45747.3316550926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45740.30222222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45895.66614583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45893.88939814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45894.70920138889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45831.68861111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45897.6021412037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45897.60502314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>45662.793125</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45897.60579861111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45831.81407407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45358.42530092593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45832.6290625</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45743.32101851852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44583.48233796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45714.63861111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>44848.61694444445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45758.33077546296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45747.36087962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45747.39961805556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45835.30780092593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45734.46896990741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45835.70679398148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44355</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45566</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45096.49310185185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45436.29416666667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>45909.17881944445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45906.77978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45909.17378472222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45906.64269675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>45810.49170138889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45842.35321759259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45912.33157407407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45832.36733796296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45824.60089120371</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45316</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45813.49745370371</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45259.59259259259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45848.34980324074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45917.23777777778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45245</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45917.69334490741</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45572.73310185185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45358.42875</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45769.49650462963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45918.65954861111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45918.27836805556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45922.58141203703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44454.513125</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45922.57309027778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45922.60380787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45222.60958333333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44855</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44904.61891203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44578.56890046296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45861.49597222222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45922.59641203703</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>45922.61231481482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45923.50554398148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45677.33115740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45701.59465277778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44819.38932870371</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>45363.54946759259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44544.37164351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45715.8704050926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45575.6594212963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45933.56418981482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45876.45918981481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>45399.65960648148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45933.513125</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45877.3594212963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45425.50166666666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45877.35587962963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45880.4324537037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>45936.35686342593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45362.60065972222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45715.6139699074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45936.38321759259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45883.64337962963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45939.46600694444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>45763.37650462963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>45937.2980787037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45882.70383101852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>45937.32879629629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45937.32658564814</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45812.88762731481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>45939.66118055556</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45939.66929398148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>45939.69818287037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>45937.330625</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>45769.49473379629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>45673.43833333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45939.68114583333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44748.5990625</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>45939.70425925926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>45939.70865740741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>45140.48737268519</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45716.58680555555</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45938.47579861111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44749</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45897.60409722223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45721.92153935185</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45936.50234953704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45665.57445601852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45245.54103009259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44323</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45062.47752314815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45359</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45547.56211805555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45321.57853009259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45425.49927083333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45950.51443287037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>45950.45165509259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45950.5109375</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45950.51739583333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45950.52065972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45096.47930555556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45096.48693287037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44867</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45169</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>45679.46103009259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>45771.84162037037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>45740.30034722222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>45740.31306712963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45957.30179398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45789</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45755.58724537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>45484.5425462963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45959.78039351852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45959.7783912037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44770</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45960.68311342593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45644.65484953704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>45211</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>45315</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>45315.58561342592</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45363</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>45966.64509259259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>45329.60322916666</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>45362</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44375.48304398148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45968.55694444444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45970</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>44522.32146990741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>45973.73554398148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45973.73327546296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45973.38502314815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45973.72755787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45973.72988425926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>44866</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44327</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>45978.7262962963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45978.73516203704</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45978.60631944444</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45978.6075</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45978.72342592593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45978.73694444444</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45978.77400462963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45267</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45978.61762731482</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45978.7124537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45978.71613425926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45978.77184027778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45978.71899305555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45558.64050925926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44958</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44578.57564814815</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45546.41631944444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45980.52216435185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45359</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45342</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45034</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45174</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44447</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45760.74111111111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45989.57377314815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45708.59888888889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45993.62711805556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45993.61234953703</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45761.66307870371</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44958.57884259259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45722.62149305556</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44658.64395833333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45624.30578703704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44263</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>45994.61512731481</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>45994.61616898148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45762.66929398148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>45096.54045138889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45187.58931712963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45392.31473379629</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45679.4559375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45679.45844907407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45424.66726851852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45424.67069444444</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45602.49099537037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44462</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>46000.74790509259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45686.57615740741</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44866</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45303</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45170</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44965.42309027778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44552.73288194444</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>46003.52628472223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44720</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44882.53041666667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44652.3578587963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44882.53457175926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>46006.58729166666</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45551.56788194444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45316.61636574074</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45433.47820601852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45701.59832175926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44665</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45656.30733796296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45188.63167824074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>44270.6375</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45574.73483796296</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>46051.42083333333</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>44867</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>46051.41560185186</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45140</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>46051.42386574074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>46013.61328703703</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>46010.42064814815</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45463.46701388889</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45463.50510416667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>46013.51569444445</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>46013.61670138889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>46013.62133101852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45665.75994212963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>46013.6294212963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>44656.41122685185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45714.70980324074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>44600.5171412037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45526.88622685185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45705.90400462963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>45720.68186342593</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45695.27399305555</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45713.549375</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45711.66019675926</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45688.31125</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45316</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45715.57387731481</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45714.70159722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45684.46290509259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45664.53193287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>46058.42747685185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45673.49438657407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>45002.52252314815</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>45392.31230324074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>45720.32884259259</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45467.37991898148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44390</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>46063.75802083333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45539.67503472222</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45439</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>45005</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>44684.94835648148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>44593.63106481481</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>45544.62965277778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>44725</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45362.65149305556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>44802.67622685185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>46029.5978587963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45050.46230324074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>44393</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>46072.32791666667</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45572.73627314815</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45708.60285879629</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45450.35185185185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>45762.66724537037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>45377.64844907408</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45377.64953703704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44866</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>45771.83752314815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>45722.65114583333</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45547.56070601852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45169</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44699.60015046296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45755.67962962963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>45334.66134259259</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>45035</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>45035.55740740741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45377.60664351852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44952</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45772</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45267.48306712963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45050.45886574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>44523.90597222222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>44511.50591435185</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44511.52870370371</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45436.29991898148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45308.76016203704</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45097.87364583334</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45210.68569444444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44784.62546296296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45523.61668981481</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45196.4919212963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45573.49206018518</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45762.66334490741</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45602.46625</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45602.46885416667</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45392.30935185185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45392.31827546296</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45252.61841435185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45629.66594907407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45629.67246527778</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45736.85403935185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45334.65969907407</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44679.46383101852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44851.36157407407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45568.45821759259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45415.55299768518</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45716.57733796296</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45472.47465277778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45227</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45601.42782407408</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45391.56081018518</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45391.57079861111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44866</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45258</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>44887</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>44649.54094907407</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44851</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>44622.4339699074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>44622</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45189.49895833333</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45519.45018518518</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45751.6478587963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45467.48260416667</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45574.71733796296</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45575.33427083334</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45587.44087962963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45258.3278125</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45096.47690972222</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45035.48894675926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44586.47695601852</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45761.43445601852</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45761.44023148148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45089</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45751.64315972223</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45751.64424768519</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>45624.31189814815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45746.78952546296</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45701.5966550926</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45328</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>45394</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44267</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45093</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>45573.54892361111</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>45594.86378472222</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>45070.59466435185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>45310</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>45301</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>45595.56956018518</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>45700.48887731481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>45394</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>45544.38148148148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>45664.52055555556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45044</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>45474.46332175926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         <v>44434</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>45747.36298611111</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>45747.40263888889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35121,7 +35121,7 @@
         <v>45747.40377314815</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35178,7 +35178,7 @@
         <v>44831</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35235,7 +35235,7 @@
         <v>44831.67641203704</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>45317</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>45075.35929398148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>44882.691875</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35463,7 +35463,7 @@
         <v>45075.59015046297</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35520,7 +35520,7 @@
         <v>45625.4484837963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35577,7 +35577,7 @@
         <v>45070.6187037037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>44547.498125</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>45259.58164351852</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>45609.71940972222</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44587.59861111111</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45313.7837037037</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>45306.46153935185</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45096</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45096</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>45131.35476851852</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>45388.54862268519</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>45328</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>45113</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>45301.32994212963</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>45672.59924768518</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>45266.46422453703</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44665.37211805556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>45730</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>45782.38717592593</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>45785.55520833333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36794,7 +36794,7 @@
         <v>45641.60702546296</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36851,7 +36851,7 @@
         <v>45075</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>45789.84584490741</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>45792.35465277778</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>45792.36625</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>45796.57332175926</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>45797.44449074074</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>45800.69072916666</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>45805.55758101852</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37317,7 +37317,7 @@
         <v>45813.50327546296</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>45813.50425925926</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37431,7 +37431,7 @@
         <v>45816.57043981482</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>45814.76371527778</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>45816.58734953704</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>

--- a/Översikt TRANEMO.xlsx
+++ b/Översikt TRANEMO.xlsx
@@ -575,7 +575,7 @@
         <v>45523.495</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -690,7 +690,7 @@
         <v>45132</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>45087</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>45917.49247685185</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         <v>44309.486875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1059,7 +1059,7 @@
         <v>45484.56258101852</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45397.58005787037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>45621.69048611111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         <v>44308</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44609</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45831.68372685185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>44418.48847222222</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>45261.38623842593</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1772,7 @@
         <v>44866</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>45665.4808449074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>44732</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>45605.45597222223</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44644</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>44947</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,7 +2292,7 @@
         <v>45096</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>46072.33061342593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         <v>45616.40061342593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2552,7 +2552,7 @@
         <v>45800.49765046296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         <v>44323</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         <v>44326.47512731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         <v>44434.60643518518</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         <v>44886</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2879,7 +2879,7 @@
         <v>44800.77262731481</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44272.65820601852</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>44251</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44613.69466435185</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
         <v>44296.53216435185</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         <v>44670</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3226,7 +3226,7 @@
         <v>44574</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3283,7 +3283,7 @@
         <v>44296</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3340,7 +3340,7 @@
         <v>44564.59123842593</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>44726</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>44461</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>44585</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         <v>44472.87332175926</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3630,7 +3630,7 @@
         <v>44637</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>44487.61502314815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>44448.71143518519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>44852.47015046296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3863,7 +3863,7 @@
         <v>44599</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>44734.40373842593</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         <v>44851</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>44670</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>44494</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         <v>44804.47979166666</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4210,7 +4210,7 @@
         <v>44421</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>44434.59706018519</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>44530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>44616</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
         <v>44583.48859953704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44366.58707175926</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         <v>44366</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
         <v>44423.6921875</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         <v>44887.52715277778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>44348.60203703704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4785,7 +4785,7 @@
         <v>44327.60472222222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         <v>44312</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4899,7 +4899,7 @@
         <v>44435.59436342592</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         <v>44375</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5013,7 +5013,7 @@
         <v>44502</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5075,7 +5075,7 @@
         <v>44270.30571759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5132,7 +5132,7 @@
         <v>44270</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44585</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         <v>44495.71494212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5308,7 +5308,7 @@
         <v>44537.6525462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5365,7 +5365,7 @@
         <v>44348</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44589</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5484,7 +5484,7 @@
         <v>44370.7040625</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         <v>44675.52387731482</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5598,7 +5598,7 @@
         <v>44722.35153935185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5655,7 +5655,7 @@
         <v>44274.37195601852</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         <v>44775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5769,7 +5769,7 @@
         <v>44341.52290509259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>44599</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5883,7 +5883,7 @@
         <v>44509</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>44799.45363425926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>44680.57590277777</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>44433.48688657407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6111,7 +6111,7 @@
         <v>44630</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>44793.74420138889</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>44800.77560185185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6282,7 +6282,7 @@
         <v>44448.68752314815</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
         <v>44732.57942129629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6401,7 +6401,7 @@
         <v>44872.68400462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6458,7 +6458,7 @@
         <v>44882.69835648148</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6515,7 +6515,7 @@
         <v>44530</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>44837.50228009259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>44366.61554398148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>44296.52827546297</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6743,7 +6743,7 @@
         <v>44449.3241550926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6800,7 +6800,7 @@
         <v>44396</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
         <v>44469</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
         <v>44481.28127314815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6971,7 +6971,7 @@
         <v>44376</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>44788.45302083333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7085,7 +7085,7 @@
         <v>44522.37459490741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7142,7 +7142,7 @@
         <v>44500.76238425926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>44350</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7256,7 +7256,7 @@
         <v>44705</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7313,7 +7313,7 @@
         <v>44735</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>44433</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
         <v>44552</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7484,7 +7484,7 @@
         <v>44599</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7541,7 +7541,7 @@
         <v>44649.52905092593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7598,7 +7598,7 @@
         <v>44593.61201388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
         <v>44596</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7717,7 +7717,7 @@
         <v>44958.58229166667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7774,7 +7774,7 @@
         <v>45316</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>45196.39703703704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>45227.62710648148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7945,7 +7945,7 @@
         <v>45362.65846064815</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8002,7 +8002,7 @@
         <v>44998</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8059,7 +8059,7 @@
         <v>45315</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8116,7 +8116,7 @@
         <v>45608.54731481482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8173,7 +8173,7 @@
         <v>44656.41016203703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8230,7 +8230,7 @@
         <v>45006</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8287,7 +8287,7 @@
         <v>45397.59844907407</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8344,7 +8344,7 @@
         <v>45641.61994212963</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8401,7 +8401,7 @@
         <v>45157.35537037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
         <v>45747.33934027778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8515,7 +8515,7 @@
         <v>45747.34612268519</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8572,7 +8572,7 @@
         <v>45270.77712962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8629,7 +8629,7 @@
         <v>45746.8065625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8686,7 +8686,7 @@
         <v>44732.47703703704</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8743,7 +8743,7 @@
         <v>45358.41972222222</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8800,7 +8800,7 @@
         <v>44882</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
         <v>45713.57063657408</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8914,7 +8914,7 @@
         <v>45774.76767361111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
         <v>45377.31006944444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9033,7 +9033,7 @@
         <v>44947</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9090,7 +9090,7 @@
         <v>45315.58699074074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9147,7 +9147,7 @@
         <v>45484.56001157407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>45762.66623842593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
         <v>45551.58702546296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9318,7 +9318,7 @@
         <v>44852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>45740.30517361111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>45363.44333333334</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9489,7 +9489,7 @@
         <v>44902.64207175926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         <v>45566.61230324074</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9603,7 +9603,7 @@
         <v>44923</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9660,7 +9660,7 @@
         <v>44867.55510416667</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9717,7 +9717,7 @@
         <v>44366</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9774,7 +9774,7 @@
         <v>44931</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45574.613125</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9893,7 +9893,7 @@
         <v>45701.59048611111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9950,7 +9950,7 @@
         <v>45426.57429398148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45376</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10069,7 +10069,7 @@
         <v>45327</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>45259.59832175926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45224</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>45301.32887731482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>45572.61049768519</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10359,7 +10359,7 @@
         <v>45257.36528935185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
         <v>44958.55733796296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10473,7 +10473,7 @@
         <v>45694.45484953704</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10535,7 +10535,7 @@
         <v>44866</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>45467.48980324074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>45093</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44988.40950231482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>45251.39027777778</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>45044</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>45815.79688657408</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>45819</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44958.58</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44853.42767361111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>45407.74482638889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>45664.5280787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>45183</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>45820.50112268519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44799.46290509259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>45227.90935185185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44537</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>45670.3232175926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>45887.37974537037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44867</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>45820.62862268519</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>45820.62993055556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44258</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>45819.76692129629</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>45751.64501157407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>45153.44586805555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>45825.38179398148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>45615.37414351852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>45763.56734953704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>45155.44679398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>45825.3859375</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>45222.51053240741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>45888.3525</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>45317</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12483,7 +12483,7 @@
         <v>44983</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12540,7 +12540,7 @@
         <v>45825</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12597,7 +12597,7 @@
         <v>45763</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12654,7 +12654,7 @@
         <v>45722.64840277778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12711,7 +12711,7 @@
         <v>45737.76314814815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>45726.60076388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12825,7 +12825,7 @@
         <v>45740.308125</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12882,7 +12882,7 @@
         <v>45740.30979166667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12939,7 +12939,7 @@
         <v>45734.46116898148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>45099.29707175926</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>45544.63393518519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>45891.48011574074</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13167,7 +13167,7 @@
         <v>45890.55368055555</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13224,7 +13224,7 @@
         <v>45890.55513888889</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45826.5583912037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13338,7 +13338,7 @@
         <v>45715.62474537037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13395,7 +13395,7 @@
         <v>45826.56084490741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13452,7 +13452,7 @@
         <v>45747.3316550926</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45740.30222222222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13566,7 +13566,7 @@
         <v>45895.66614583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13623,7 +13623,7 @@
         <v>45893.88939814815</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13680,7 +13680,7 @@
         <v>45894.70920138889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13737,7 +13737,7 @@
         <v>45831.68861111111</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45897.6021412037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45897.60502314815</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13918,7 +13918,7 @@
         <v>45662.793125</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>45897.60579861111</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14037,7 +14037,7 @@
         <v>45831.81407407407</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14094,7 +14094,7 @@
         <v>45358.42530092593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14151,7 +14151,7 @@
         <v>45832.6290625</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>45174</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45743.32101851852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>44583.48233796296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14379,7 +14379,7 @@
         <v>45714.63861111111</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14436,7 +14436,7 @@
         <v>44848.61694444445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>45758.33077546296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>45747.36087962963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>45747.39961805556</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>45835.30780092593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14726,7 +14726,7 @@
         <v>45734.46896990741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14783,7 +14783,7 @@
         <v>45835.70679398148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14840,7 +14840,7 @@
         <v>44355</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14897,7 +14897,7 @@
         <v>45566</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45096.49310185185</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>45328</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15073,7 +15073,7 @@
         <v>45328</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45436.29416666667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15192,7 +15192,7 @@
         <v>45909.17881944445</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15249,7 +15249,7 @@
         <v>45906.77978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15311,7 +15311,7 @@
         <v>45909.17378472222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15368,7 +15368,7 @@
         <v>45906.64269675926</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>45810.49170138889</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>45079</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>45842.35321759259</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>45912.33157407407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>45832.36733796296</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>45824.60089120371</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>45316</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>45813.49745370371</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>45259.59259259259</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>45848.34980324074</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>45917.23777777778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>45245</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>45917.69334490741</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>45572.73310185185</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>45358.42875</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>45769.49650462963</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>45918.65954861111</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>45918.27836805556</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>45922.58141203703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44454.513125</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>45922.57309027778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>45922.60380787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>45222.60958333333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44855</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44904.61891203704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44578.56890046296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>45861.49597222222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>45922.59641203703</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17031,7 +17031,7 @@
         <v>45922.61231481482</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>45923.50554398148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17145,7 +17145,7 @@
         <v>45677.33115740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17202,7 +17202,7 @@
         <v>45701.59465277778</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17259,7 +17259,7 @@
         <v>44819.38932870371</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17316,7 +17316,7 @@
         <v>45363.54946759259</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17378,7 +17378,7 @@
         <v>44544.37164351852</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>45715.8704050926</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17492,7 +17492,7 @@
         <v>45575.6594212963</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>45933.56418981482</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45876.45918981481</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>45399.65960648148</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45933.513125</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45877.3594212963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45425.50166666666</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>45877.35587962963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45880.4324537037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>45936.35686342593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>45362.60065972222</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>45715.6139699074</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45936.38321759259</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45883.64337962963</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>45939.46600694444</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>45763.37650462963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18414,7 +18414,7 @@
         <v>45937.2980787037</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18471,7 +18471,7 @@
         <v>45882.70383101852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18528,7 +18528,7 @@
         <v>45937.32879629629</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18585,7 +18585,7 @@
         <v>45937.32658564814</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>45812.88762731481</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18699,7 +18699,7 @@
         <v>45939.66118055556</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45939.66929398148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18813,7 +18813,7 @@
         <v>45939.69818287037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18870,7 +18870,7 @@
         <v>45937.330625</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18927,7 +18927,7 @@
         <v>45769.49473379629</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18984,7 +18984,7 @@
         <v>45673.43833333333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45939.68114583333</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>44748.5990625</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19160,7 +19160,7 @@
         <v>45939.70425925926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19217,7 +19217,7 @@
         <v>45939.70865740741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19274,7 +19274,7 @@
         <v>45140.48737268519</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>45716.58680555555</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45938.47579861111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19445,7 +19445,7 @@
         <v>44749</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45897.60409722223</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19564,7 +19564,7 @@
         <v>45721.92153935185</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19621,7 +19621,7 @@
         <v>45936.50234953704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45665.57445601852</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45245.54103009259</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19792,7 +19792,7 @@
         <v>44323</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19849,7 +19849,7 @@
         <v>45062.47752314815</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19906,7 +19906,7 @@
         <v>45359</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>45547.56211805555</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45321.57853009259</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45425.49927083333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45950.51443287037</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20196,7 +20196,7 @@
         <v>45950.45165509259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20253,7 +20253,7 @@
         <v>45950.5109375</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20310,7 +20310,7 @@
         <v>45950.51739583333</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20367,7 +20367,7 @@
         <v>45950.52065972222</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20424,7 +20424,7 @@
         <v>45096.47930555556</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20481,7 +20481,7 @@
         <v>45096.48693287037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20538,7 +20538,7 @@
         <v>44867</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20595,7 +20595,7 @@
         <v>45169</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20652,7 +20652,7 @@
         <v>45679.46103009259</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20709,7 +20709,7 @@
         <v>45771.84162037037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20766,7 +20766,7 @@
         <v>45740.30034722222</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20823,7 +20823,7 @@
         <v>45740.31306712963</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20880,7 +20880,7 @@
         <v>45957.30179398148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20937,7 +20937,7 @@
         <v>45789</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20994,7 +20994,7 @@
         <v>45755.58724537037</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21051,7 +21051,7 @@
         <v>45484.5425462963</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21108,7 +21108,7 @@
         <v>45959.78039351852</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21165,7 +21165,7 @@
         <v>45959.7783912037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21222,7 +21222,7 @@
         <v>44770</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>44977</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45960.68311342593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45644.65484953704</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21450,7 +21450,7 @@
         <v>45211</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>45315</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21564,7 +21564,7 @@
         <v>45315.58561342592</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45363</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21683,7 +21683,7 @@
         <v>44963</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21740,7 +21740,7 @@
         <v>45966.64509259259</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21797,7 +21797,7 @@
         <v>45329.60322916666</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21854,7 +21854,7 @@
         <v>45362</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21911,7 +21911,7 @@
         <v>44375.48304398148</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21973,7 +21973,7 @@
         <v>45968.55694444444</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22030,7 +22030,7 @@
         <v>45789</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22087,7 +22087,7 @@
         <v>45970</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22144,7 +22144,7 @@
         <v>44522.32146990741</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22201,7 +22201,7 @@
         <v>45973.73554398148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22263,7 +22263,7 @@
         <v>45973.73327546296</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>45973.38502314815</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>45973.72755787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22444,7 +22444,7 @@
         <v>45973.72988425926</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>44866</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>44327</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>45978.7262962963</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>45978.73516203704</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45978.60631944444</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45978.6075</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45978.72342592593</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45978.73694444444</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45978.77400462963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45267</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44838</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45978.61762731482</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45978.7124537037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45978.71613425926</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45978.77184027778</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45978.71899305555</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45558.64050925926</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>44958</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>44578.57564814815</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45546.41631944444</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45980.52216435185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23708,7 +23708,7 @@
         <v>45359</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23765,7 +23765,7 @@
         <v>45342</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>45034</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>45174</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23936,7 +23936,7 @@
         <v>44447</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45760.74111111111</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45989.57377314815</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45708.59888888889</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45993.62711805556</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24221,7 +24221,7 @@
         <v>45993.61234953703</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24278,7 +24278,7 @@
         <v>45761.66307870371</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44958.57884259259</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24392,7 +24392,7 @@
         <v>45722.62149305556</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>44658.64395833333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45624.30578703704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>44263</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24620,7 +24620,7 @@
         <v>45994.61512731481</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24677,7 +24677,7 @@
         <v>45994.61616898148</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24734,7 +24734,7 @@
         <v>45762.66929398148</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24791,7 +24791,7 @@
         <v>44970</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24848,7 +24848,7 @@
         <v>45096.54045138889</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         <v>45187.58931712963</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24962,7 +24962,7 @@
         <v>45392.31473379629</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25019,7 +25019,7 @@
         <v>45679.4559375</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25076,7 +25076,7 @@
         <v>45679.45844907407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>45424.66726851852</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25190,7 +25190,7 @@
         <v>45424.67069444444</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25247,7 +25247,7 @@
         <v>45602.49099537037</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25304,7 +25304,7 @@
         <v>44462</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25361,7 +25361,7 @@
         <v>46000.74790509259</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25418,7 +25418,7 @@
         <v>45686.57615740741</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25475,7 +25475,7 @@
         <v>44866</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25537,7 +25537,7 @@
         <v>45303</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25594,7 +25594,7 @@
         <v>45170</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25651,7 +25651,7 @@
         <v>44965.42309027778</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25708,7 +25708,7 @@
         <v>44552.73288194444</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25765,7 +25765,7 @@
         <v>46003.52628472223</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25822,7 +25822,7 @@
         <v>44720</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25879,7 +25879,7 @@
         <v>44882.53041666667</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25936,7 +25936,7 @@
         <v>44652.3578587963</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25993,7 +25993,7 @@
         <v>44882.53457175926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26050,7 +26050,7 @@
         <v>46006.58729166666</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26107,7 +26107,7 @@
         <v>45551.56788194444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>45316.61636574074</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>45433.47820601852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>45701.59832175926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26335,7 +26335,7 @@
         <v>44665</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26392,7 +26392,7 @@
         <v>45656.30733796296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26449,7 +26449,7 @@
         <v>45188.63167824074</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26506,7 +26506,7 @@
         <v>44270.6375</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26563,7 +26563,7 @@
         <v>45574.73483796296</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26620,7 +26620,7 @@
         <v>46051.42083333333</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26677,7 +26677,7 @@
         <v>44867</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26734,7 +26734,7 @@
         <v>46051.41560185186</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26791,7 +26791,7 @@
         <v>45140</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26848,7 +26848,7 @@
         <v>46051.42386574074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>46013.61328703703</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>46010.42064814815</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>45463.46701388889</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>45463.50510416667</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>46013.51569444445</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>46013.61670138889</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27247,7 +27247,7 @@
         <v>46013.62133101852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27304,7 +27304,7 @@
         <v>45665.75994212963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27361,7 +27361,7 @@
         <v>46013.6294212963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27418,7 +27418,7 @@
         <v>44656.41122685185</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27475,7 +27475,7 @@
         <v>45714.70980324074</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27532,7 +27532,7 @@
         <v>44600.5171412037</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27589,7 +27589,7 @@
         <v>45526.88622685185</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27646,7 +27646,7 @@
         <v>45705.90400462963</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27703,7 +27703,7 @@
         <v>45720.68186342593</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27760,7 +27760,7 @@
         <v>45695.27399305555</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27817,7 +27817,7 @@
         <v>45713.549375</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27874,7 +27874,7 @@
         <v>45711.66019675926</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45688.31125</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27988,7 +27988,7 @@
         <v>45316</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28045,7 +28045,7 @@
         <v>45715.57387731481</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28102,7 +28102,7 @@
         <v>45714.70159722222</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28159,7 +28159,7 @@
         <v>45684.46290509259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28216,7 +28216,7 @@
         <v>45664.53193287037</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28273,7 +28273,7 @@
         <v>46058.42747685185</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28330,7 +28330,7 @@
         <v>45673.49438657407</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28387,7 +28387,7 @@
         <v>45002.52252314815</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28444,7 +28444,7 @@
         <v>45392.31230324074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28501,7 +28501,7 @@
         <v>45720.32884259259</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28558,7 +28558,7 @@
         <v>45467.37991898148</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28615,7 +28615,7 @@
         <v>44390</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
         <v>46063.75802083333</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28729,7 +28729,7 @@
         <v>45539.67503472222</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>45439</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28843,7 +28843,7 @@
         <v>45005</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>44684.94835648148</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28957,7 +28957,7 @@
         <v>44593.63106481481</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -29014,7 +29014,7 @@
         <v>45544.62965277778</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29071,7 +29071,7 @@
         <v>44725</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29128,7 +29128,7 @@
         <v>45362.65149305556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29185,7 +29185,7 @@
         <v>44802.67622685185</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29242,7 +29242,7 @@
         <v>46029.5978587963</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29299,7 +29299,7 @@
         <v>45050.46230324074</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29356,7 +29356,7 @@
         <v>44393</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29413,7 +29413,7 @@
         <v>46072.32791666667</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29470,7 +29470,7 @@
         <v>45572.73627314815</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29527,7 +29527,7 @@
         <v>45708.60285879629</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29584,7 +29584,7 @@
         <v>45450.35185185185</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29646,7 +29646,7 @@
         <v>45762.66724537037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29703,7 +29703,7 @@
         <v>45377.64844907408</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29760,7 +29760,7 @@
         <v>45377.64953703704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29817,7 +29817,7 @@
         <v>44866</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29879,7 +29879,7 @@
         <v>45771.83752314815</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29936,7 +29936,7 @@
         <v>45722.65114583333</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29993,7 +29993,7 @@
         <v>45547.56070601852</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -30055,7 +30055,7 @@
         <v>45169</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30112,7 +30112,7 @@
         <v>44699.60015046296</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30169,7 +30169,7 @@
         <v>45755.67962962963</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30226,7 +30226,7 @@
         <v>45334.66134259259</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>45035</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>45035.55740740741</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>45377.60664351852</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44952</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30511,7 +30511,7 @@
         <v>45772</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30568,7 +30568,7 @@
         <v>45267.48306712963</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30625,7 +30625,7 @@
         <v>45050.45886574074</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30682,7 +30682,7 @@
         <v>44523.90597222222</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>44511.50591435185</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>44511.52870370371</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45436.29991898148</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45308.76016203704</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45097.87364583334</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45210.68569444444</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>44784.62546296296</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45523.61668981481</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
         <v>45196.4919212963</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45573.49206018518</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31319,7 +31319,7 @@
         <v>45762.66334490741</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31376,7 +31376,7 @@
         <v>45602.46625</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45602.46885416667</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31490,7 +31490,7 @@
         <v>45392.30935185185</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31547,7 +31547,7 @@
         <v>45392.31827546296</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45252.61841435185</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>45629.66594907407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45629.67246527778</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45736.85403935185</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31832,7 +31832,7 @@
         <v>45334.65969907407</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31889,7 +31889,7 @@
         <v>44679.46383101852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31946,7 +31946,7 @@
         <v>44851.36157407407</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45568.45821759259</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45415.55299768518</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45716.57733796296</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32179,7 +32179,7 @@
         <v>45472.47465277778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32236,7 +32236,7 @@
         <v>45227</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45601.42782407408</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45391.56081018518</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32407,7 +32407,7 @@
         <v>45391.57079861111</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44866</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45258</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>44887</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>44649.54094907407</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44851</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>44622.4339699074</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>44622</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>45376</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45189.49895833333</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45519.45018518518</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -33039,7 +33039,7 @@
         <v>45751.6478587963</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>45467.48260416667</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>45574.71733796296</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>45575.33427083334</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>45587.44087962963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45258.3278125</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>45096.47690972222</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>45035.48894675926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44586.47695601852</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45761.43445601852</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45761.44023148148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45089</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45751.64315972223</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33790,7 +33790,7 @@
         <v>45751.64424768519</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33852,7 +33852,7 @@
         <v>45624.31189814815</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>45746.78952546296</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33966,7 +33966,7 @@
         <v>45701.5966550926</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -34023,7 +34023,7 @@
         <v>45328</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>45394</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34137,7 +34137,7 @@
         <v>44267</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34194,7 +34194,7 @@
         <v>45093</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34256,7 +34256,7 @@
         <v>45573.54892361111</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34313,7 +34313,7 @@
         <v>45594.86378472222</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34370,7 +34370,7 @@
         <v>45070.59466435185</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34427,7 +34427,7 @@
         <v>45310</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34489,7 +34489,7 @@
         <v>45301</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34546,7 +34546,7 @@
         <v>45595.56956018518</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34603,7 +34603,7 @@
         <v>45700.48887731481</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>45394</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34717,7 +34717,7 @@
         <v>45544.38148148148</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34779,7 +34779,7 @@
         <v>45664.52055555556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34836,7 +34836,7 @@
         <v>45044</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34893,7 +34893,7 @@
         <v>45474.46332175926</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34950,7 +34950,7 @@
         <v>44434</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -35007,7 +35007,7 @@
         <v>45747.36298611111</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
         <v>45747.40263888889</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35121,7 +35121,7 @@
         <v>45747.40377314815</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35178,7 +35178,7 @@
         <v>44831</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35235,7 +35235,7 @@
         <v>44831.67641203704</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35292,7 +35292,7 @@
         <v>45317</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35349,7 +35349,7 @@
         <v>45075.35929398148</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35406,7 +35406,7 @@
         <v>44882.691875</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35463,7 +35463,7 @@
         <v>45075.59015046297</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35520,7 +35520,7 @@
         <v>45625.4484837963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35577,7 +35577,7 @@
         <v>45070.6187037037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35634,7 +35634,7 @@
         <v>44547.498125</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35691,7 +35691,7 @@
         <v>45259.58164351852</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35748,7 +35748,7 @@
         <v>45609.71940972222</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35805,7 +35805,7 @@
         <v>44587.59861111111</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35862,7 +35862,7 @@
         <v>45313.7837037037</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35919,7 +35919,7 @@
         <v>45306.46153935185</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35976,7 +35976,7 @@
         <v>45096</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -36038,7 +36038,7 @@
         <v>45096</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -36100,7 +36100,7 @@
         <v>45131.35476851852</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36157,7 +36157,7 @@
         <v>45388.54862268519</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36214,7 +36214,7 @@
         <v>45328</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36276,7 +36276,7 @@
         <v>45113</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36333,7 +36333,7 @@
         <v>45301.32994212963</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36390,7 +36390,7 @@
         <v>45672.59924768518</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36447,7 +36447,7 @@
         <v>45266.46422453703</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>44665.37211805556</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36561,7 +36561,7 @@
         <v>45730</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36618,7 +36618,7 @@
         <v>45782.38717592593</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36675,7 +36675,7 @@
         <v>45785.55520833333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36732,7 +36732,7 @@
         <v>45096</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36794,7 +36794,7 @@
         <v>45641.60702546296</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36851,7 +36851,7 @@
         <v>45075</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36908,7 +36908,7 @@
         <v>45789.84584490741</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36965,7 +36965,7 @@
         <v>45792.35465277778</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -37022,7 +37022,7 @@
         <v>45792.36625</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -37079,7 +37079,7 @@
         <v>45796.57332175926</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37136,7 +37136,7 @@
         <v>45797.44449074074</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37193,7 +37193,7 @@
         <v>45800.69072916666</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37255,7 +37255,7 @@
         <v>45805.55758101852</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37317,7 +37317,7 @@
         <v>45813.50327546296</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37374,7 +37374,7 @@
         <v>45813.50425925926</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37431,7 +37431,7 @@
         <v>45816.57043981482</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37488,7 +37488,7 @@
         <v>45814.76371527778</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37545,7 +37545,7 @@
         <v>45816.58734953704</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
